--- a/Tables/PCA_ab_reason_nopart.xlsx
+++ b/Tables/PCA_ab_reason_nopart.xlsx
@@ -99,13 +99,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.34542662958506809</v>
+        <v>0.3454266295850677</v>
       </c>
       <c r="C1">
-        <v>-0.26325321174500022</v>
+        <v>-0.2632532117450006</v>
       </c>
       <c r="D1">
-        <v>0.30635602763737857</v>
+        <v>0.30635602763737907</v>
       </c>
     </row>
     <row r="2">
@@ -113,13 +113,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.24408209956762802</v>
+        <v>0.2440820995676288</v>
       </c>
       <c r="C2">
-        <v>0.39970502556349052</v>
+        <v>0.39970502556349069</v>
       </c>
       <c r="D2">
-        <v>-0.10515703809137208</v>
+        <v>-0.10515703809137249</v>
       </c>
     </row>
     <row r="3">
@@ -127,13 +127,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.29607315901282116</v>
+        <v>0.29607315901282133</v>
       </c>
       <c r="C3">
-        <v>0.40420327168042852</v>
+        <v>0.40420327168042802</v>
       </c>
       <c r="D3">
-        <v>0.039854920616003708</v>
+        <v>0.039854920616004291</v>
       </c>
     </row>
     <row r="4">
@@ -141,13 +141,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3665709334252289</v>
+        <v>0.36657093342522867</v>
       </c>
       <c r="C4">
-        <v>-0.32730272448234715</v>
+        <v>-0.32730272448234804</v>
       </c>
       <c r="D4">
-        <v>0.14680524024238173</v>
+        <v>0.14680524024238134</v>
       </c>
     </row>
     <row r="5">
@@ -155,13 +155,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.42105051337488847</v>
+        <v>0.42105051337488852</v>
       </c>
       <c r="C5">
-        <v>-0.24707063318031977</v>
+        <v>-0.24707063318031985</v>
       </c>
       <c r="D5">
-        <v>0.0047407440451665726</v>
+        <v>0.0047407440451656844</v>
       </c>
     </row>
     <row r="6">
@@ -169,13 +169,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.045508135253795115</v>
+        <v>0.045508135253795108</v>
       </c>
       <c r="C6">
-        <v>0.34176269348594435</v>
+        <v>0.34176269348594474</v>
       </c>
       <c r="D6">
-        <v>0.63762297911524735</v>
+        <v>0.6376229791152449</v>
       </c>
     </row>
     <row r="7">
@@ -183,13 +183,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.29705483349589562</v>
+        <v>0.29705483349589534</v>
       </c>
       <c r="C7">
-        <v>-0.12696286553819758</v>
+        <v>-0.12696286553819788</v>
       </c>
       <c r="D7">
-        <v>0.2226095886997958</v>
+        <v>0.22260958869979822</v>
       </c>
     </row>
     <row r="8">
@@ -197,13 +197,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.21256195534474126</v>
+        <v>0.2125619553447419</v>
       </c>
       <c r="C8">
-        <v>0.26488861594402607</v>
+        <v>0.26488861594402535</v>
       </c>
       <c r="D8">
-        <v>0.035612362885151364</v>
+        <v>0.035612362885152078</v>
       </c>
     </row>
     <row r="9">
@@ -211,13 +211,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.41985197001543828</v>
+        <v>0.41985197001543756</v>
       </c>
       <c r="C9">
-        <v>-0.13587749944428479</v>
+        <v>-0.13587749944428457</v>
       </c>
       <c r="D9">
-        <v>-0.21025593900553582</v>
+        <v>-0.21025593900553621</v>
       </c>
     </row>
     <row r="10">
@@ -225,13 +225,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.22172848688739183</v>
+        <v>0.22172848688739211</v>
       </c>
       <c r="C10">
-        <v>0.02549250487022164</v>
+        <v>0.025492504870220974</v>
       </c>
       <c r="D10">
-        <v>-0.59627902963872714</v>
+        <v>-0.59627902963872903</v>
       </c>
     </row>
     <row r="11">
@@ -239,13 +239,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.24668385587645919</v>
+        <v>0.2466838558764595</v>
       </c>
       <c r="C11">
-        <v>0.46602846862976971</v>
+        <v>0.4660284686297696</v>
       </c>
       <c r="D11">
-        <v>-0.12158429098737092</v>
+        <v>-0.12158429098737031</v>
       </c>
     </row>
   </sheetData>
@@ -262,13 +262,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.49809679369812859</v>
+        <v>0.49809679369812898</v>
       </c>
       <c r="C1">
-        <v>-0.071975404804508258</v>
+        <v>-0.071975404804507787</v>
       </c>
       <c r="D1">
-        <v>0.1708653001670708</v>
+        <v>0.17086530016707069</v>
       </c>
     </row>
     <row r="2">
@@ -276,13 +276,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.034768842662309646</v>
+        <v>-0.034768842662309729</v>
       </c>
       <c r="C2">
-        <v>0.47867143413380597</v>
+        <v>0.47867143413380681</v>
       </c>
       <c r="D2">
-        <v>-0.0079351858460835895</v>
+        <v>-0.0079351858460854213</v>
       </c>
     </row>
     <row r="3">
@@ -290,13 +290,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.043522493699442333</v>
+        <v>0.043522493699442548</v>
       </c>
       <c r="C3">
-        <v>0.48496663069589707</v>
+        <v>0.48496663069589735</v>
       </c>
       <c r="D3">
-        <v>0.12466424778561591</v>
+        <v>0.12466424778561475</v>
       </c>
     </row>
     <row r="4">
@@ -304,13 +304,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5063033030186026</v>
+        <v>0.50630330301860305</v>
       </c>
       <c r="C4">
-        <v>-0.081893471439958149</v>
+        <v>-0.081893471439958357</v>
       </c>
       <c r="D4">
-        <v>-0.0018777476934085102</v>
+        <v>-0.001877747693409676</v>
       </c>
     </row>
     <row r="5">
@@ -318,13 +318,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.47191635179709029</v>
+        <v>0.47191635179709002</v>
       </c>
       <c r="C5">
-        <v>0.039659075507033549</v>
+        <v>0.039659075507033889</v>
       </c>
       <c r="D5">
-        <v>-0.11862555325028189</v>
+        <v>-0.11862555325028365</v>
       </c>
     </row>
     <row r="6">
@@ -335,10 +335,10 @@
         <v>0.028972216610819501</v>
       </c>
       <c r="C6">
-        <v>0.1822361857430011</v>
+        <v>0.1822361857430041</v>
       </c>
       <c r="D6">
-        <v>0.70098956896614861</v>
+        <v>0.70098956896614584</v>
       </c>
     </row>
     <row r="7">
@@ -346,13 +346,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.36632324000389749</v>
+        <v>0.36632324000389832</v>
       </c>
       <c r="C7">
         <v>0.025449005139604984</v>
       </c>
       <c r="D7">
-        <v>0.13811518482950491</v>
+        <v>0.13811518482950652</v>
       </c>
     </row>
     <row r="8">
@@ -360,13 +360,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.046136099825391859</v>
+        <v>0.04613609982539274</v>
       </c>
       <c r="C8">
-        <v>0.32657390209848308</v>
+        <v>0.32657390209848319</v>
       </c>
       <c r="D8">
-        <v>0.088531072895663754</v>
+        <v>0.088531072895663088</v>
       </c>
     </row>
     <row r="9">
@@ -374,13 +374,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.35694949439038715</v>
+        <v>0.35694949439038581</v>
       </c>
       <c r="C9">
-        <v>0.1679596804617951</v>
+        <v>0.16795968046179455</v>
       </c>
       <c r="D9">
-        <v>-0.28865643187324697</v>
+        <v>-0.28865643187324835</v>
       </c>
     </row>
     <row r="10">
@@ -388,13 +388,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.010479323770285043</v>
+        <v>0.010479323770283988</v>
       </c>
       <c r="C10">
-        <v>0.2564457293423309</v>
+        <v>0.25644572934232923</v>
       </c>
       <c r="D10">
-        <v>-0.58265585259587871</v>
+        <v>-0.58265585259588171</v>
       </c>
     </row>
     <row r="11">
@@ -402,13 +402,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.071168978544701639</v>
+        <v>-0.071168978544701764</v>
       </c>
       <c r="C11">
-        <v>0.53641227081144682</v>
+        <v>0.53641227081144693</v>
       </c>
       <c r="D11">
-        <v>-0.0038794785988777308</v>
+        <v>-0.0038794785988787578</v>
       </c>
     </row>
   </sheetData>
@@ -425,13 +425,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.50285301401244831</v>
+        <v>0.50285301401244875</v>
       </c>
       <c r="C1">
-        <v>-0.080784342931070632</v>
+        <v>-0.080784342931070216</v>
       </c>
       <c r="D1">
-        <v>0.1723479780795413</v>
+        <v>0.17234797807954125</v>
       </c>
     </row>
     <row r="2">
@@ -439,13 +439,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.049895080052211237</v>
+        <v>-0.049895080052211493</v>
       </c>
       <c r="C2">
-        <v>0.48079432172559011</v>
+        <v>0.48079432172559078</v>
       </c>
       <c r="D2">
-        <v>0.0034196753736994174</v>
+        <v>0.0034196753736974918</v>
       </c>
     </row>
     <row r="3">
@@ -453,13 +453,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.029647076112736457</v>
+        <v>0.029647076112736499</v>
       </c>
       <c r="C3">
-        <v>0.49024218941478198</v>
+        <v>0.49024218941478204</v>
       </c>
       <c r="D3">
-        <v>0.13689678583096063</v>
+        <v>0.13689678583095938</v>
       </c>
     </row>
     <row r="4">
@@ -467,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.50966030511756888</v>
+        <v>0.50966030511756932</v>
       </c>
       <c r="C4">
-        <v>-0.098322556294255514</v>
+        <v>-0.098322556294255736</v>
       </c>
       <c r="D4">
-        <v>-0.00094526016703327075</v>
+        <v>-0.00094526016703438812</v>
       </c>
     </row>
     <row r="5">
@@ -481,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.47024692806165913</v>
+        <v>0.47024692806165885</v>
       </c>
       <c r="C5">
-        <v>0.01971366750760388</v>
+        <v>0.019713667507604241</v>
       </c>
       <c r="D5">
-        <v>-0.11519441880251445</v>
+        <v>-0.11519441880251619</v>
       </c>
     </row>
     <row r="6">
@@ -495,13 +495,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.030303058535888251</v>
+        <v>0.030303058535887953</v>
       </c>
       <c r="C6">
-        <v>0.21157747282200998</v>
+        <v>0.2115774728220125</v>
       </c>
       <c r="D6">
-        <v>0.70701338778632294</v>
+        <v>0.70701338778632028</v>
       </c>
     </row>
     <row r="7">
@@ -509,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.36749053216270311</v>
+        <v>0.36749053216270394</v>
       </c>
       <c r="C7">
-        <v>0.019720508906005005</v>
+        <v>0.019720508906004994</v>
       </c>
       <c r="D7">
-        <v>0.14112625483990848</v>
+        <v>0.14112625483991012</v>
       </c>
     </row>
     <row r="8">
@@ -523,13 +523,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.036865132535305156</v>
+        <v>0.036865132535305926</v>
       </c>
       <c r="C8">
         <v>0.32978519983331495</v>
       </c>
       <c r="D8">
-        <v>0.096874811142773215</v>
+        <v>0.096874811142772493</v>
       </c>
     </row>
     <row r="9">
@@ -537,13 +537,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.34938178272637743</v>
+        <v>0.34938178272637616</v>
       </c>
       <c r="C9">
-        <v>0.14482102201519104</v>
+        <v>0.14482102201519059</v>
       </c>
       <c r="D9">
-        <v>-0.28313795886572934</v>
+        <v>-0.28313795886573073</v>
       </c>
     </row>
     <row r="10">
@@ -551,13 +551,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.003347017928115782</v>
+        <v>-0.0033470179281167778</v>
       </c>
       <c r="C10">
-        <v>0.23211013634984357</v>
+        <v>0.23211013634984201</v>
       </c>
       <c r="D10">
-        <v>-0.57760258933090813</v>
+        <v>-0.57760258933091124</v>
       </c>
     </row>
     <row r="11">
@@ -565,13 +565,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.088121436207682854</v>
+        <v>-0.088121436207683118</v>
       </c>
       <c r="C11">
         <v>0.54002924091555182</v>
       </c>
       <c r="D11">
-        <v>0.008669975497044435</v>
+        <v>0.0086699754970432814</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/PCA_ab_reason_nopart.xlsx
+++ b/Tables/PCA_ab_reason_nopart.xlsx
@@ -99,13 +99,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.3454266295850677</v>
+        <v>0.34542662958506776</v>
       </c>
       <c r="C1">
-        <v>-0.2632532117450006</v>
+        <v>-0.26325321174500022</v>
       </c>
       <c r="D1">
-        <v>0.30635602763737907</v>
+        <v>0.30635602763737918</v>
       </c>
     </row>
     <row r="2">
@@ -113,13 +113,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2440820995676288</v>
+        <v>0.24408209956762886</v>
       </c>
       <c r="C2">
-        <v>0.39970502556349069</v>
+        <v>0.39970502556349102</v>
       </c>
       <c r="D2">
-        <v>-0.10515703809137249</v>
+        <v>-0.10515703809137326</v>
       </c>
     </row>
     <row r="3">
@@ -127,13 +127,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.29607315901282133</v>
+        <v>0.29607315901282127</v>
       </c>
       <c r="C3">
-        <v>0.40420327168042802</v>
+        <v>0.40420327168042786</v>
       </c>
       <c r="D3">
-        <v>0.039854920616004291</v>
+        <v>0.039854920616004486</v>
       </c>
     </row>
     <row r="4">
@@ -141,13 +141,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.36657093342522867</v>
+        <v>0.36657093342522878</v>
       </c>
       <c r="C4">
-        <v>-0.32730272448234804</v>
+        <v>-0.32730272448234776</v>
       </c>
       <c r="D4">
-        <v>0.14680524024238134</v>
+        <v>0.14680524024238203</v>
       </c>
     </row>
     <row r="5">
@@ -155,13 +155,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.42105051337488852</v>
+        <v>0.42105051337488864</v>
       </c>
       <c r="C5">
-        <v>-0.24707063318031985</v>
+        <v>-0.24707063318031952</v>
       </c>
       <c r="D5">
-        <v>0.0047407440451656844</v>
+        <v>0.0047407440451655734</v>
       </c>
     </row>
     <row r="6">
@@ -172,10 +172,10 @@
         <v>0.045508135253795108</v>
       </c>
       <c r="C6">
-        <v>0.34176269348594474</v>
+        <v>0.3417626934859444</v>
       </c>
       <c r="D6">
-        <v>0.6376229791152449</v>
+        <v>0.63762297911524457</v>
       </c>
     </row>
     <row r="7">
@@ -183,13 +183,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.29705483349589534</v>
+        <v>0.29705483349589545</v>
       </c>
       <c r="C7">
-        <v>-0.12696286553819788</v>
+        <v>-0.12696286553819805</v>
       </c>
       <c r="D7">
-        <v>0.22260958869979822</v>
+        <v>0.2226095886997958</v>
       </c>
     </row>
     <row r="8">
@@ -197,13 +197,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2125619553447419</v>
+        <v>0.21256195534474182</v>
       </c>
       <c r="C8">
-        <v>0.26488861594402535</v>
+        <v>0.26488861594402602</v>
       </c>
       <c r="D8">
-        <v>0.035612362885152078</v>
+        <v>0.035612362885152946</v>
       </c>
     </row>
     <row r="9">
@@ -211,13 +211,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.41985197001543756</v>
+        <v>0.41985197001543767</v>
       </c>
       <c r="C9">
-        <v>-0.13587749944428457</v>
+        <v>-0.13587749944428454</v>
       </c>
       <c r="D9">
-        <v>-0.21025593900553621</v>
+        <v>-0.21025593900553505</v>
       </c>
     </row>
     <row r="10">
@@ -225,13 +225,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.22172848688739211</v>
+        <v>0.22172848688739213</v>
       </c>
       <c r="C10">
-        <v>0.025492504870220974</v>
+        <v>0.025492504870220815</v>
       </c>
       <c r="D10">
-        <v>-0.59627902963872903</v>
+        <v>-0.59627902963872847</v>
       </c>
     </row>
     <row r="11">
@@ -239,13 +239,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2466838558764595</v>
+        <v>0.24668385587645936</v>
       </c>
       <c r="C11">
-        <v>0.4660284686297696</v>
+        <v>0.46602846862976949</v>
       </c>
       <c r="D11">
-        <v>-0.12158429098737031</v>
+        <v>-0.12158429098737028</v>
       </c>
     </row>
   </sheetData>
@@ -262,13 +262,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.49809679369812898</v>
+        <v>0.49809679369812837</v>
       </c>
       <c r="C1">
-        <v>-0.071975404804507787</v>
+        <v>-0.071975404804507481</v>
       </c>
       <c r="D1">
-        <v>0.17086530016707069</v>
+        <v>0.17086530016707094</v>
       </c>
     </row>
     <row r="2">
@@ -276,13 +276,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.034768842662309729</v>
+        <v>-0.034768842662309923</v>
       </c>
       <c r="C2">
-        <v>0.47867143413380681</v>
+        <v>0.47867143413380658</v>
       </c>
       <c r="D2">
-        <v>-0.0079351858460854213</v>
+        <v>-0.007935185846085907</v>
       </c>
     </row>
     <row r="3">
@@ -290,13 +290,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.043522493699442548</v>
+        <v>0.043522493699442673</v>
       </c>
       <c r="C3">
-        <v>0.48496663069589735</v>
+        <v>0.48496663069589641</v>
       </c>
       <c r="D3">
-        <v>0.12466424778561475</v>
+        <v>0.12466424778561504</v>
       </c>
     </row>
     <row r="4">
@@ -304,13 +304,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.50630330301860305</v>
+        <v>0.50630330301860271</v>
       </c>
       <c r="C4">
-        <v>-0.081893471439958357</v>
+        <v>-0.081893471439958149</v>
       </c>
       <c r="D4">
-        <v>-0.001877747693409676</v>
+        <v>-0.0018777476934088988</v>
       </c>
     </row>
     <row r="5">
@@ -318,13 +318,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.47191635179709002</v>
+        <v>0.47191635179708941</v>
       </c>
       <c r="C5">
-        <v>0.039659075507033889</v>
+        <v>0.03965907550703416</v>
       </c>
       <c r="D5">
-        <v>-0.11862555325028365</v>
+        <v>-0.11862555325028355</v>
       </c>
     </row>
     <row r="6">
@@ -332,13 +332,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.028972216610819501</v>
+        <v>0.028972216610819557</v>
       </c>
       <c r="C6">
-        <v>0.1822361857430041</v>
+        <v>0.18223618574300343</v>
       </c>
       <c r="D6">
-        <v>0.70098956896614584</v>
+        <v>0.7009895689661455</v>
       </c>
     </row>
     <row r="7">
@@ -346,13 +346,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.36632324000389832</v>
+        <v>0.36632324000389743</v>
       </c>
       <c r="C7">
-        <v>0.025449005139604984</v>
+        <v>0.025449005139605227</v>
       </c>
       <c r="D7">
-        <v>0.13811518482950652</v>
+        <v>0.13811518482950422</v>
       </c>
     </row>
     <row r="8">
@@ -360,13 +360,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.04613609982539274</v>
+        <v>0.046136099825392546</v>
       </c>
       <c r="C8">
-        <v>0.32657390209848319</v>
+        <v>0.32657390209848303</v>
       </c>
       <c r="D8">
-        <v>0.088531072895663088</v>
+        <v>0.088531072895664226</v>
       </c>
     </row>
     <row r="9">
@@ -374,13 +374,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.35694949439038581</v>
+        <v>0.35694949439038587</v>
       </c>
       <c r="C9">
-        <v>0.16795968046179455</v>
+        <v>0.16795968046179421</v>
       </c>
       <c r="D9">
-        <v>-0.28865643187324835</v>
+        <v>-0.28865643187324708</v>
       </c>
     </row>
     <row r="10">
@@ -388,13 +388,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.010479323770283988</v>
+        <v>0.010479323770284321</v>
       </c>
       <c r="C10">
-        <v>0.25644572934232923</v>
+        <v>0.25644572934232884</v>
       </c>
       <c r="D10">
-        <v>-0.58265585259588171</v>
+        <v>-0.58265585259588104</v>
       </c>
     </row>
     <row r="11">
@@ -402,13 +402,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.071168978544701764</v>
+        <v>-0.071168978544701667</v>
       </c>
       <c r="C11">
-        <v>0.53641227081144693</v>
+        <v>0.53641227081144593</v>
       </c>
       <c r="D11">
-        <v>-0.0038794785988787578</v>
+        <v>-0.0038794785988785913</v>
       </c>
     </row>
   </sheetData>
@@ -425,13 +425,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.50285301401244875</v>
+        <v>0.50285301401244809</v>
       </c>
       <c r="C1">
-        <v>-0.080784342931070216</v>
+        <v>-0.080784342931070147</v>
       </c>
       <c r="D1">
-        <v>0.17234797807954125</v>
+        <v>0.17234797807954158</v>
       </c>
     </row>
     <row r="2">
@@ -439,13 +439,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.049895080052211493</v>
+        <v>-0.049895080052211695</v>
       </c>
       <c r="C2">
-        <v>0.48079432172559078</v>
+        <v>0.48079432172559067</v>
       </c>
       <c r="D2">
-        <v>0.0034196753736974918</v>
+        <v>0.0034196753736968934</v>
       </c>
     </row>
     <row r="3">
@@ -453,13 +453,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.029647076112736499</v>
+        <v>0.029647076112736662</v>
       </c>
       <c r="C3">
-        <v>0.49024218941478204</v>
+        <v>0.4902421894147812</v>
       </c>
       <c r="D3">
-        <v>0.13689678583095938</v>
+        <v>0.13689678583095954</v>
       </c>
     </row>
     <row r="4">
@@ -467,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.50966030511756932</v>
+        <v>0.50966030511756899</v>
       </c>
       <c r="C4">
-        <v>-0.098322556294255736</v>
+        <v>-0.098322556294255722</v>
       </c>
       <c r="D4">
-        <v>-0.00094526016703438812</v>
+        <v>-0.00094526016703352228</v>
       </c>
     </row>
     <row r="5">
@@ -481,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.47024692806165885</v>
+        <v>0.47024692806165824</v>
       </c>
       <c r="C5">
-        <v>0.019713667507604241</v>
+        <v>0.019713667507604359</v>
       </c>
       <c r="D5">
-        <v>-0.11519441880251619</v>
+        <v>-0.11519441880251602</v>
       </c>
     </row>
     <row r="6">
@@ -495,13 +495,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.030303058535887953</v>
+        <v>0.030303058535888119</v>
       </c>
       <c r="C6">
-        <v>0.2115774728220125</v>
+        <v>0.21157747282201173</v>
       </c>
       <c r="D6">
-        <v>0.70701338778632028</v>
+        <v>0.70701338778631984</v>
       </c>
     </row>
     <row r="7">
@@ -509,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.36749053216270394</v>
+        <v>0.367490532162703</v>
       </c>
       <c r="C7">
-        <v>0.019720508906004994</v>
+        <v>0.019720508906004991</v>
       </c>
       <c r="D7">
-        <v>0.14112625483991012</v>
+        <v>0.14112625483990784</v>
       </c>
     </row>
     <row r="8">
@@ -523,13 +523,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.036865132535305926</v>
+        <v>0.036865132535305753</v>
       </c>
       <c r="C8">
-        <v>0.32978519983331495</v>
+        <v>0.32978519983331478</v>
       </c>
       <c r="D8">
-        <v>0.096874811142772493</v>
+        <v>0.096874811142773562</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +540,10 @@
         <v>0.34938178272637616</v>
       </c>
       <c r="C9">
-        <v>0.14482102201519059</v>
+        <v>0.14482102201519026</v>
       </c>
       <c r="D9">
-        <v>-0.28313795886573073</v>
+        <v>-0.28313795886572946</v>
       </c>
     </row>
     <row r="10">
@@ -551,13 +551,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.0033470179281167778</v>
+        <v>-0.0033470179281165123</v>
       </c>
       <c r="C10">
-        <v>0.23211013634984201</v>
+        <v>0.23211013634984182</v>
       </c>
       <c r="D10">
-        <v>-0.57760258933091124</v>
+        <v>-0.57760258933091058</v>
       </c>
     </row>
     <row r="11">
@@ -565,13 +565,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.088121436207683118</v>
+        <v>-0.088121436207683007</v>
       </c>
       <c r="C11">
-        <v>0.54002924091555182</v>
+        <v>0.54002924091555093</v>
       </c>
       <c r="D11">
-        <v>0.0086699754970432814</v>
+        <v>0.008669975497043304</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/PCA_ab_reason_nopart.xlsx
+++ b/Tables/PCA_ab_reason_nopart.xlsx
@@ -102,10 +102,10 @@
         <v>0.34542662958506776</v>
       </c>
       <c r="C1">
-        <v>-0.26325321174500022</v>
+        <v>-0.26325321174500044</v>
       </c>
       <c r="D1">
-        <v>0.30635602763737918</v>
+        <v>0.3063560276373794</v>
       </c>
     </row>
     <row r="2">
@@ -113,13 +113,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.24408209956762886</v>
+        <v>0.24408209956762869</v>
       </c>
       <c r="C2">
-        <v>0.39970502556349102</v>
+        <v>0.3997050255634908</v>
       </c>
       <c r="D2">
-        <v>-0.10515703809137326</v>
+        <v>-0.10515703809137299</v>
       </c>
     </row>
     <row r="3">
@@ -127,13 +127,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.29607315901282127</v>
+        <v>0.29607315901282139</v>
       </c>
       <c r="C3">
-        <v>0.40420327168042786</v>
+        <v>0.40420327168042808</v>
       </c>
       <c r="D3">
-        <v>0.039854920616004486</v>
+        <v>0.039854920616003778</v>
       </c>
     </row>
     <row r="4">
@@ -141,13 +141,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.36657093342522878</v>
+        <v>0.36657093342522856</v>
       </c>
       <c r="C4">
-        <v>-0.32730272448234776</v>
+        <v>-0.32730272448234743</v>
       </c>
       <c r="D4">
-        <v>0.14680524024238203</v>
+        <v>0.14680524024238206</v>
       </c>
     </row>
     <row r="5">
@@ -155,13 +155,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.42105051337488864</v>
+        <v>0.42105051337488875</v>
       </c>
       <c r="C5">
-        <v>-0.24707063318031952</v>
+        <v>-0.24707063318031997</v>
       </c>
       <c r="D5">
-        <v>0.0047407440451655734</v>
+        <v>0.004740744045165046</v>
       </c>
     </row>
     <row r="6">
@@ -169,13 +169,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.045508135253795108</v>
+        <v>0.045508135253795122</v>
       </c>
       <c r="C6">
         <v>0.3417626934859444</v>
       </c>
       <c r="D6">
-        <v>0.63762297911524457</v>
+        <v>0.63762297911524479</v>
       </c>
     </row>
     <row r="7">
@@ -183,13 +183,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.29705483349589545</v>
+        <v>0.29705483349589529</v>
       </c>
       <c r="C7">
-        <v>-0.12696286553819805</v>
+        <v>-0.12696286553819794</v>
       </c>
       <c r="D7">
-        <v>0.2226095886997958</v>
+        <v>0.22260958869979683</v>
       </c>
     </row>
     <row r="8">
@@ -197,13 +197,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.21256195534474182</v>
+        <v>0.2125619553447419</v>
       </c>
       <c r="C8">
-        <v>0.26488861594402602</v>
+        <v>0.26488861594402618</v>
       </c>
       <c r="D8">
-        <v>0.035612362885152946</v>
+        <v>0.035612362885154202</v>
       </c>
     </row>
     <row r="9">
@@ -211,13 +211,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.41985197001543767</v>
+        <v>0.41985197001543773</v>
       </c>
       <c r="C9">
-        <v>-0.13587749944428454</v>
+        <v>-0.13587749944428495</v>
       </c>
       <c r="D9">
-        <v>-0.21025593900553505</v>
+        <v>-0.21025593900553571</v>
       </c>
     </row>
     <row r="10">
@@ -225,13 +225,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.22172848688739213</v>
+        <v>0.22172848688739197</v>
       </c>
       <c r="C10">
-        <v>0.025492504870220815</v>
+        <v>0.025492504870220749</v>
       </c>
       <c r="D10">
-        <v>-0.59627902963872847</v>
+        <v>-0.59627902963872825</v>
       </c>
     </row>
     <row r="11">
@@ -239,13 +239,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.24668385587645936</v>
+        <v>0.24668385587645938</v>
       </c>
       <c r="C11">
-        <v>0.46602846862976949</v>
+        <v>0.46602846862976954</v>
       </c>
       <c r="D11">
-        <v>-0.12158429098737028</v>
+        <v>-0.12158429098737102</v>
       </c>
     </row>
   </sheetData>
@@ -262,13 +262,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.49809679369812837</v>
+        <v>0.4980967936981292</v>
       </c>
       <c r="C1">
-        <v>-0.071975404804507481</v>
+        <v>-0.071975404804507814</v>
       </c>
       <c r="D1">
-        <v>0.17086530016707094</v>
+        <v>0.17086530016707113</v>
       </c>
     </row>
     <row r="2">
@@ -276,13 +276,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.034768842662309923</v>
+        <v>-0.034768842662309986</v>
       </c>
       <c r="C2">
-        <v>0.47867143413380658</v>
+        <v>0.47867143413380608</v>
       </c>
       <c r="D2">
-        <v>-0.007935185846085907</v>
+        <v>-0.0079351858460855323</v>
       </c>
     </row>
     <row r="3">
@@ -290,13 +290,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.043522493699442673</v>
+        <v>0.043522493699442437</v>
       </c>
       <c r="C3">
-        <v>0.48496663069589641</v>
+        <v>0.48496663069589663</v>
       </c>
       <c r="D3">
-        <v>0.12466424778561504</v>
+        <v>0.12466424778561463</v>
       </c>
     </row>
     <row r="4">
@@ -304,13 +304,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.50630330301860271</v>
+        <v>0.50630330301860293</v>
       </c>
       <c r="C4">
-        <v>-0.081893471439958149</v>
+        <v>-0.081893471439958052</v>
       </c>
       <c r="D4">
-        <v>-0.0018777476934088988</v>
+        <v>-0.00187774769340876</v>
       </c>
     </row>
     <row r="5">
@@ -318,13 +318,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.47191635179708941</v>
+        <v>0.47191635179709024</v>
       </c>
       <c r="C5">
-        <v>0.03965907550703416</v>
+        <v>0.039659075507033952</v>
       </c>
       <c r="D5">
-        <v>-0.11862555325028355</v>
+        <v>-0.1186255532502842</v>
       </c>
     </row>
     <row r="6">
@@ -332,13 +332,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.028972216610819557</v>
+        <v>0.028972216610819529</v>
       </c>
       <c r="C6">
-        <v>0.18223618574300343</v>
+        <v>0.18223618574300315</v>
       </c>
       <c r="D6">
-        <v>0.7009895689661455</v>
+        <v>0.70098956896614595</v>
       </c>
     </row>
     <row r="7">
@@ -346,13 +346,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.36632324000389743</v>
+        <v>0.36632324000389799</v>
       </c>
       <c r="C7">
-        <v>0.025449005139605227</v>
+        <v>0.025449005139604922</v>
       </c>
       <c r="D7">
-        <v>0.13811518482950422</v>
+        <v>0.1381151848295053</v>
       </c>
     </row>
     <row r="8">
@@ -360,13 +360,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.046136099825392546</v>
+        <v>0.046136099825392879</v>
       </c>
       <c r="C8">
-        <v>0.32657390209848303</v>
+        <v>0.32657390209848286</v>
       </c>
       <c r="D8">
-        <v>0.088531072895664226</v>
+        <v>0.088531072895665586</v>
       </c>
     </row>
     <row r="9">
@@ -374,13 +374,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.35694949439038587</v>
+        <v>0.35694949439038637</v>
       </c>
       <c r="C9">
-        <v>0.16795968046179421</v>
+        <v>0.16795968046179405</v>
       </c>
       <c r="D9">
-        <v>-0.28865643187324708</v>
+        <v>-0.28865643187324785</v>
       </c>
     </row>
     <row r="10">
@@ -391,10 +391,10 @@
         <v>0.010479323770284321</v>
       </c>
       <c r="C10">
-        <v>0.25644572934232884</v>
+        <v>0.25644572934232879</v>
       </c>
       <c r="D10">
-        <v>-0.58265585259588104</v>
+        <v>-0.58265585259588082</v>
       </c>
     </row>
     <row r="11">
@@ -402,13 +402,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.071168978544701667</v>
+        <v>-0.071168978544702027</v>
       </c>
       <c r="C11">
-        <v>0.53641227081144593</v>
+        <v>0.53641227081144605</v>
       </c>
       <c r="D11">
-        <v>-0.0038794785988785913</v>
+        <v>-0.003879478598879077</v>
       </c>
     </row>
   </sheetData>
@@ -425,13 +425,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.50285301401244809</v>
+        <v>0.50285301401244897</v>
       </c>
       <c r="C1">
-        <v>-0.080784342931070147</v>
+        <v>-0.080784342931070383</v>
       </c>
       <c r="D1">
-        <v>0.17234797807954158</v>
+        <v>0.17234797807954172</v>
       </c>
     </row>
     <row r="2">
@@ -439,13 +439,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.049895080052211695</v>
+        <v>-0.049895080052211604</v>
       </c>
       <c r="C2">
-        <v>0.48079432172559067</v>
+        <v>0.48079432172559017</v>
       </c>
       <c r="D2">
-        <v>0.0034196753736968934</v>
+        <v>0.0034196753736973218</v>
       </c>
     </row>
     <row r="3">
@@ -453,13 +453,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.029647076112736662</v>
+        <v>0.029647076112736551</v>
       </c>
       <c r="C3">
-        <v>0.4902421894147812</v>
+        <v>0.49024218941478137</v>
       </c>
       <c r="D3">
-        <v>0.13689678583095954</v>
+        <v>0.13689678583095921</v>
       </c>
     </row>
     <row r="4">
@@ -467,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.50966030511756899</v>
+        <v>0.50966030511756921</v>
       </c>
       <c r="C4">
-        <v>-0.098322556294255722</v>
+        <v>-0.098322556294255459</v>
       </c>
       <c r="D4">
-        <v>-0.00094526016703352228</v>
+        <v>-0.00094526016703346373</v>
       </c>
     </row>
     <row r="5">
@@ -481,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.47024692806165824</v>
+        <v>0.47024692806165908</v>
       </c>
       <c r="C5">
-        <v>0.019713667507604359</v>
+        <v>0.019713667507604261</v>
       </c>
       <c r="D5">
-        <v>-0.11519441880251602</v>
+        <v>-0.11519441880251677</v>
       </c>
     </row>
     <row r="6">
@@ -495,13 +495,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.030303058535888119</v>
+        <v>0.030303058535888144</v>
       </c>
       <c r="C6">
-        <v>0.21157747282201173</v>
+        <v>0.21157747282201134</v>
       </c>
       <c r="D6">
-        <v>0.70701338778631984</v>
+        <v>0.70701338778632039</v>
       </c>
     </row>
     <row r="7">
@@ -509,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.367490532162703</v>
+        <v>0.36749053216270361</v>
       </c>
       <c r="C7">
-        <v>0.019720508906004991</v>
+        <v>0.019720508906004797</v>
       </c>
       <c r="D7">
-        <v>0.14112625483990784</v>
+        <v>0.14112625483990893</v>
       </c>
     </row>
     <row r="8">
@@ -523,13 +523,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.036865132535305753</v>
+        <v>0.036865132535306197</v>
       </c>
       <c r="C8">
-        <v>0.32978519983331478</v>
+        <v>0.32978519983331472</v>
       </c>
       <c r="D8">
-        <v>0.096874811142773562</v>
+        <v>0.096874811142774978</v>
       </c>
     </row>
     <row r="9">
@@ -537,13 +537,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.34938178272637616</v>
+        <v>0.34938178272637671</v>
       </c>
       <c r="C9">
-        <v>0.14482102201519026</v>
+        <v>0.14482102201519018</v>
       </c>
       <c r="D9">
-        <v>-0.28313795886572946</v>
+        <v>-0.28313795886573034</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +551,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.0033470179281165123</v>
+        <v>-0.0033470179281164265</v>
       </c>
       <c r="C10">
-        <v>0.23211013634984182</v>
+        <v>0.23211013634984187</v>
       </c>
       <c r="D10">
         <v>-0.57760258933091058</v>
@@ -565,13 +565,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.088121436207683007</v>
+        <v>-0.088121436207683229</v>
       </c>
       <c r="C11">
-        <v>0.54002924091555093</v>
+        <v>0.54002924091555105</v>
       </c>
       <c r="D11">
-        <v>0.008669975497043304</v>
+        <v>0.0086699754970428963</v>
       </c>
     </row>
   </sheetData>
